--- a/DWA15-P4-Ideas.xlsx
+++ b/DWA15-P4-Ideas.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soul\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\p4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="3" r:id="rId1"/>
     <sheet name="games" sheetId="1" r:id="rId2"/>
     <sheet name="Functionality" sheetId="2" r:id="rId3"/>
+    <sheet name="New Idea" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -113,6 +114,18 @@
   </si>
   <si>
     <t>Forum?</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>esrb_rating</t>
+  </si>
+  <si>
+    <t>release_date</t>
   </si>
 </sst>
 </file>
@@ -128,12 +141,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,8 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +472,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,4 +653,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DWA15-P4-Ideas.xlsx
+++ b/DWA15-P4-Ideas.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="3" r:id="rId1"/>
     <sheet name="games" sheetId="1" r:id="rId2"/>
     <sheet name="Functionality" sheetId="2" r:id="rId3"/>
     <sheet name="New Idea" sheetId="5" r:id="rId4"/>
+    <sheet name="Idea 12-11-14" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -126,13 +127,61 @@
   </si>
   <si>
     <t>release_date</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>remember_token</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>game_user</t>
+  </si>
+  <si>
+    <t>relationship_id (auto-increments)</t>
+  </si>
+  <si>
+    <t>relationship_id</t>
+  </si>
+  <si>
+    <t>game_id (unsigned)</t>
+  </si>
+  <si>
+    <t>user_id (unsigned)</t>
+  </si>
+  <si>
+    <t>&lt;- May not be necessary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +189,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +231,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,15 +251,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +560,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -731,4 +819,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DWA15-P4-Ideas.xlsx
+++ b/DWA15-P4-Ideas.xlsx
@@ -826,7 +826,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
